--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>769.8243340567827</v>
+        <v>86.28805814453402</v>
       </c>
       <c r="R2">
-        <v>6928.419006511045</v>
+        <v>776.5925233008061</v>
       </c>
       <c r="S2">
-        <v>0.382430810621703</v>
+        <v>0.127936575011842</v>
       </c>
       <c r="T2">
-        <v>0.3824308106217031</v>
+        <v>0.127936575011842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H3">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>625.5504086273678</v>
+        <v>214.314235156413</v>
       </c>
       <c r="R3">
-        <v>5629.953677646311</v>
+        <v>1928.828116407717</v>
       </c>
       <c r="S3">
-        <v>0.3107588826082187</v>
+        <v>0.317756938929687</v>
       </c>
       <c r="T3">
-        <v>0.3107588826082187</v>
+        <v>0.317756938929687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H4">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>93.22550736085955</v>
+        <v>31.93915795043901</v>
       </c>
       <c r="R4">
-        <v>839.0295662477359</v>
+        <v>287.452421553951</v>
       </c>
       <c r="S4">
-        <v>0.04631226212706772</v>
+        <v>0.04735517943974327</v>
       </c>
       <c r="T4">
-        <v>0.04631226212706772</v>
+        <v>0.04735517943974327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>10.37790390547155</v>
+        <v>3.395314429138667</v>
       </c>
       <c r="R5">
-        <v>93.40113514924398</v>
+        <v>30.55782986224801</v>
       </c>
       <c r="S5">
-        <v>0.005155501102711155</v>
+        <v>0.005034125329656698</v>
       </c>
       <c r="T5">
-        <v>0.005155501102711156</v>
+        <v>0.005034125329656698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>8.432965472204</v>
@@ -818,10 +818,10 @@
         <v>75.896689249836</v>
       </c>
       <c r="S6">
-        <v>0.004189300959719894</v>
+        <v>0.01250329121904389</v>
       </c>
       <c r="T6">
-        <v>0.004189300959719895</v>
+        <v>0.01250329121904389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>1.256761203989778</v>
@@ -880,10 +880,10 @@
         <v>11.310850835908</v>
       </c>
       <c r="S7">
-        <v>0.0006243297135944617</v>
+        <v>0.001863360092967815</v>
       </c>
       <c r="T7">
-        <v>0.0006243297135944617</v>
+        <v>0.001863360092967815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H8">
         <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>260.8015463822446</v>
+        <v>85.32582895727603</v>
       </c>
       <c r="R8">
-        <v>2347.213917440201</v>
+        <v>767.9324606154842</v>
       </c>
       <c r="S8">
-        <v>0.129560137789823</v>
+        <v>0.1265099082257148</v>
       </c>
       <c r="T8">
-        <v>0.129560137789823</v>
+        <v>0.1265099082257148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H9">
         <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>211.924339998882</v>
@@ -1004,10 +1004,10 @@
         <v>1907.319059989938</v>
       </c>
       <c r="S9">
-        <v>0.1052790793311865</v>
+        <v>0.3142135169583668</v>
       </c>
       <c r="T9">
-        <v>0.1052790793311865</v>
+        <v>0.3142135169583668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H10">
         <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>31.58299290677934</v>
@@ -1066,10 +1066,10 @@
         <v>284.246936161014</v>
       </c>
       <c r="S10">
-        <v>0.01568969574597549</v>
+        <v>0.04682710479297772</v>
       </c>
       <c r="T10">
-        <v>0.01568969574597549</v>
+        <v>0.04682710479297772</v>
       </c>
     </row>
   </sheetData>
